--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2240816.105137801</v>
+        <v>-2243399.13720753</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42.24406744395651</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>256.7518877339014</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646392</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.81068896088004</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>52.53157754970191</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>106.9687207389939</v>
       </c>
       <c r="H5" t="n">
-        <v>256.3958567715166</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.07538731267854</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>16.99443589447046</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>93.60737577598785</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>75.08194820049266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>153.766506584576</v>
       </c>
       <c r="V10" t="n">
-        <v>119.1488185988154</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487366</v>
+        <v>173.2052365248811</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>3.266293902015604e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.5999985461721</v>
+        <v>86.889433977701</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>99.65140663107503</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149758</v>
+        <v>171.0385136149753</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316663</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>44.76793778822429</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.2403075398373</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253073</v>
+        <v>156.7306717253069</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792623</v>
+        <v>131.5012462792619</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160399</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014316013</v>
+        <v>57.58178014315973</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346831</v>
+        <v>172.2328194346826</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603268</v>
+        <v>208.6119837603263</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222826</v>
+        <v>277.3910078222822</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568665</v>
+        <v>243.344176756866</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696295</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220756</v>
+        <v>216.9161888220752</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851333</v>
+        <v>209.7911867851328</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,52 +4328,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2702.439335264748</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2349.670679994633</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.204921733553</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080126</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="C4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2677975281824</v>
+        <v>267.4874095597295</v>
       </c>
       <c r="E4" t="n">
-        <v>350.2677975281824</v>
+        <v>119.5743159773364</v>
       </c>
       <c r="F4" t="n">
-        <v>350.2677975281824</v>
+        <v>119.5743159773364</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>119.5743159773364</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>119.5743159773364</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459644</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757122</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025388</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="X4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.2677975281824</v>
+        <v>417.6040489720652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.300932605789</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.300932605789</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E5" t="n">
-        <v>789.5126800075445</v>
+        <v>925.1277332412255</v>
       </c>
       <c r="F5" t="n">
-        <v>378.526775217937</v>
+        <v>514.141828451618</v>
       </c>
       <c r="G5" t="n">
-        <v>367.4947291033375</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201672</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="Y7" t="n">
-        <v>692.8974549201672</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2661.254023970094</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>2308.48536869998</v>
       </c>
       <c r="X8" t="n">
-        <v>2348.903689733083</v>
+        <v>1935.019610438899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>1935.019610438899</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438281</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="V10" t="n">
-        <v>511.4317969248226</v>
+        <v>765.5673021974011</v>
       </c>
       <c r="W10" t="n">
-        <v>511.4317969248226</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X10" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>511.4317969248226</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708869</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>484.81129684298</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D13" t="n">
-        <v>484.81129684298</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,7 +5212,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>2052.406834234635</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1797.722346028748</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1508.305175991787</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1280.31562509377</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011266</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117242</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3839.850899059799</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.61331560176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>888.677132673853</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>738.5604932615172</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>590.6473996791241</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>443.7574521812137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>276.5613528960936</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473547</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,46 +5732,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188004</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908936</v>
+        <v>527.7722521572598</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908936</v>
+        <v>377.6556127449242</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908936</v>
+        <v>377.6556127449242</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908936</v>
+        <v>377.6556127449242</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057735</v>
+        <v>210.459513459804</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327548</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925703</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490402</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,10 +6145,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046025</v>
+        <v>663.4384611046103</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382729</v>
+        <v>503.3845676382811</v>
       </c>
       <c r="D28" t="n">
-        <v>458.1644284582483</v>
+        <v>503.3845676382811</v>
       </c>
       <c r="E28" t="n">
-        <v>458.1644284582483</v>
+        <v>503.3845676382811</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582483</v>
+        <v>384.9600145677384</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347055</v>
+        <v>226.646204744196</v>
       </c>
       <c r="H28" t="n">
-        <v>167.021076938481</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795877</v>
+        <v>182.7582133795879</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064181</v>
+        <v>453.1530078064188</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836501</v>
+        <v>852.2571338836515</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515977</v>
+        <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077277</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687554</v>
+        <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162405</v>
+        <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790596</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504576</v>
+        <v>2458.443924504579</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621057</v>
+        <v>2284.471379621061</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105575</v>
+        <v>2073.75220410558</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911351</v>
+        <v>1793.559266911356</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167041</v>
+        <v>1547.757068167047</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.222187591658</v>
+        <v>1267.222187591664</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.114926155218</v>
+        <v>1048.114926155225</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732649</v>
+        <v>836.2046364732722</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,7 +6607,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,22 +6716,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6847,22 +6847,22 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954146</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7366,10 +7366,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7561,19 +7561,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,22 +7807,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>340.4897742195241</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>71.00037073623355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.67395848440622e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>126.2151192981482</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>43.82084286013618</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.608754447357139e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405075</v>
+        <v>112.979237864363</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.9846548059227</v>
+        <v>131.6952193743938</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
-        <v>40.64330621514883</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24.8182909385101</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194127</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>95.05406866302656</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796077</v>
+        <v>137.6404960796072</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559697</v>
+        <v>19.38727391613202</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160357</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49356.14660531242</v>
+        <v>49356.14660531241</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>60535.99497675042</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675045</v>
       </c>
       <c r="J2" t="n">
         <v>60913.3528766638</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
@@ -26350,7 +26350,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508468</v>
+        <v>224565.9756508471</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006255</v>
+        <v>12392.9447400622</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569195</v>
+        <v>7034.773253569534</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006261</v>
+        <v>12392.94474006222</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.1847694406</v>
+        <v>17720.18476944076</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.5553049608</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.5553049608</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496083</v>
       </c>
-      <c r="N4" t="n">
-        <v>22817.55530496081</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1387907.186672679</v>
+        <v>-1388314.586210496</v>
       </c>
       <c r="C6" t="n">
-        <v>-139952.5519256247</v>
+        <v>-139952.5519256246</v>
       </c>
       <c r="D6" t="n">
         <v>-139952.5519256246</v>
       </c>
       <c r="E6" t="n">
-        <v>-380825.6926963797</v>
+        <v>-380860.4306218149</v>
       </c>
       <c r="F6" t="n">
-        <v>-55413.230889024</v>
+        <v>-55447.96881445969</v>
       </c>
       <c r="G6" t="n">
-        <v>-55413.23088902402</v>
+        <v>-55447.96881445972</v>
       </c>
       <c r="H6" t="n">
-        <v>-55413.23088902401</v>
+        <v>-55447.96881445977</v>
       </c>
       <c r="I6" t="n">
-        <v>-55413.23088902402</v>
+        <v>-55447.96881445972</v>
       </c>
       <c r="J6" t="n">
-        <v>-283234.5953083485</v>
+        <v>-283256.754637121</v>
       </c>
       <c r="K6" t="n">
-        <v>-76796.48315911749</v>
+        <v>-76796.4831591172</v>
       </c>
       <c r="L6" t="n">
-        <v>-64403.53841905495</v>
+        <v>-64403.53841905498</v>
       </c>
       <c r="M6" t="n">
-        <v>-149458.5663545669</v>
+        <v>-149458.5663545668</v>
       </c>
       <c r="N6" t="n">
-        <v>-64403.53841905496</v>
+        <v>-64403.53841905498</v>
       </c>
       <c r="O6" t="n">
-        <v>-71438.3116726242</v>
+        <v>-71438.31167262451</v>
       </c>
       <c r="P6" t="n">
-        <v>-76796.48315911759</v>
+        <v>-76796.4831591172</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203968</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507818</v>
+        <v>15.49118092507775</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961493</v>
+        <v>8.793466566961918</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507826</v>
+        <v>15.49118092507777</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507818</v>
+        <v>15.49118092507775</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>303.9530049144596</v>
       </c>
       <c r="H5" t="n">
-        <v>38.21190761580385</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.7565928692588</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>201.5902174576243</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>234.144882694147</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>294.6491524779764</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>132.4453316210369</v>
       </c>
       <c r="V10" t="n">
-        <v>132.9888247250126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961525</v>
+        <v>8.79346656696196</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503468</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>359.7678776111906</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059023</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>217.6338436891722</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991494</v>
+        <v>89.83994982991533</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765965</v>
+        <v>273.1260549765969</v>
       </c>
       <c r="L28" t="n">
-        <v>403.135480886093</v>
+        <v>403.1354808860934</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680067</v>
+        <v>435.0658935680071</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568689</v>
+        <v>430.4195995568694</v>
       </c>
       <c r="O28" t="n">
-        <v>382.055366273007</v>
+        <v>382.0553662730074</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735865</v>
+        <v>304.4252398735869</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668599</v>
+        <v>129.1957238668603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
